--- a/data/trans_camb/P1414-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1414-Clase-trans_camb.xlsx
@@ -618,13 +618,13 @@
         <v>-0.9430978928147075</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.151576687773268</v>
+        <v>-0.1515766877732683</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-0.01349277166455397</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.1658652583826256</v>
+        <v>0.1658652583826255</v>
       </c>
     </row>
     <row r="5">
@@ -641,16 +641,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.65455583889522</v>
+        <v>-3.572762260637826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.956751534469265</v>
+        <v>-3.024591136596829</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.230858592907607</v>
+        <v>-1.303542722345408</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.01979387404568</v>
+        <v>-1.08428568518221</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.990187750936585</v>
+        <v>2.320944124671334</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8788069360981451</v>
+        <v>1.001725926412388</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.330607772487971</v>
+        <v>1.471143536158574</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.93389372966506</v>
+        <v>1.958306194075253</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.190982295211186</v>
+        <v>1.072040973550566</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.10254708868371</v>
+        <v>1.006298976993634</v>
       </c>
     </row>
     <row r="7">
@@ -700,13 +700,13 @@
         <v>-0.3766287668416167</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.06053257189198164</v>
+        <v>-0.06053257189198178</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.01288026380569021</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1583357620865667</v>
+        <v>0.1583357620865666</v>
       </c>
     </row>
     <row r="8">
@@ -719,16 +719,16 @@
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
-        <v>-0.8533620571178371</v>
+        <v>-0.8859052013221013</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6888271589825362</v>
+        <v>-0.6592348803922478</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7671087746965329</v>
+        <v>-0.7411793251167952</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6035134034055223</v>
+        <v>-0.6074777039933451</v>
       </c>
     </row>
     <row r="9">
@@ -741,16 +741,16 @@
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="n">
-        <v>1.988714286922946</v>
+        <v>1.857286814619179</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.681970949770905</v>
+        <v>2.043588261408428</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.889417285711711</v>
+        <v>2.669361629055737</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.530703474093644</v>
+        <v>2.3577444962429</v>
       </c>
     </row>
     <row r="10">
@@ -768,7 +768,7 @@
         <v>0.3356974369992145</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-0.02129787911661191</v>
+        <v>-0.02129787911661195</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.3957061329416478</v>
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4370669666917771</v>
+        <v>-0.4761563815976143</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9093487306681401</v>
+        <v>-0.9085211576893432</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.29241906229839</v>
+        <v>-1.342381779642314</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4382620904960353</v>
+        <v>0.2192755235562542</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.5223443662255781</v>
+        <v>-0.5180609300936365</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2409907593089956</v>
+        <v>0.09451301114930757</v>
       </c>
     </row>
     <row r="12">
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.544233929388353</v>
+        <v>1.702631696239585</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3653653477943365</v>
+        <v>0.3698675449841701</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.407813173982615</v>
+        <v>2.358175524143515</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.101283834249031</v>
+        <v>3.910389746660091</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.453743786744862</v>
+        <v>1.510179999599772</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.91971322566961</v>
+        <v>1.804325168246267</v>
       </c>
     </row>
     <row r="13">
@@ -846,7 +846,7 @@
         <v>1.338171283262517</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.08489850409049508</v>
+        <v>-0.08489850409049525</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.3382053880023821</v>
@@ -858,7 +858,7 @@
         <v>0.622217742242675</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.567932772050788</v>
+        <v>1.567932772050789</v>
       </c>
     </row>
     <row r="14">
@@ -871,16 +871,16 @@
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>-0.7754144530043238</v>
+        <v>-0.8016363457556608</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.07528100665380714</v>
+        <v>-0.05174734999700517</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6481176694755174</v>
+        <v>-0.6147753584492288</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08914322950578944</v>
+        <v>-0.02485231940101766</v>
       </c>
     </row>
     <row r="15">
@@ -893,16 +893,16 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>6.19911586626881</v>
+        <v>5.051516871447356</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10.57084094438769</v>
+        <v>9.177929993662596</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.389049280176634</v>
+        <v>4.890988956615692</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7.810261325037913</v>
+        <v>6.027979155741524</v>
       </c>
     </row>
     <row r="16">
@@ -926,7 +926,7 @@
         <v>-0.661930845926572</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.802067776703124</v>
+        <v>1.802067776703125</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.08469121018891655</v>
@@ -943,22 +943,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1526682860684839</v>
+        <v>-0.1672739304543456</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4320067679237186</v>
+        <v>0.3394574703319407</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.61439692641253</v>
+        <v>-4.055193972912542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.032491267975479</v>
+        <v>-1.607363065819919</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.170704821269884</v>
+        <v>-1.251990771326627</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03661690169671136</v>
+        <v>0.09374481599655271</v>
       </c>
     </row>
     <row r="18">
@@ -969,22 +969,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.333019003594655</v>
+        <v>1.384290525068517</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.241374467677836</v>
+        <v>3.089023068740508</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.495833111313416</v>
+        <v>3.873482608218261</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.697531989489852</v>
+        <v>5.461625719157932</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.294476631820032</v>
+        <v>1.008247468990721</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.88208964133583</v>
+        <v>2.937828493682189</v>
       </c>
     </row>
     <row r="19">
@@ -1004,7 +1004,7 @@
         <v>-0.14889402475495</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.4053552207239141</v>
+        <v>0.4053552207239142</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.0596251062592428</v>
@@ -1023,16 +1023,16 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.763973890413288</v>
+        <v>-0.740464822582009</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3440923058869675</v>
+        <v>-0.3319613009272431</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6380017886048666</v>
+        <v>-0.650475767912391</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.07743600986219201</v>
+        <v>-0.002908857968129346</v>
       </c>
     </row>
     <row r="21">
@@ -1045,16 +1045,16 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>1.437140802380936</v>
+        <v>1.537244832499311</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.185584688990736</v>
+        <v>1.935839959136926</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.536579267358791</v>
+        <v>1.144609737169613</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.070135124414381</v>
+        <v>3.155105557038798</v>
       </c>
     </row>
     <row r="22">
@@ -1084,7 +1084,7 @@
         <v>1.048646973753897</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.9898157513475614</v>
+        <v>0.9898157513475611</v>
       </c>
     </row>
     <row r="23">
@@ -1095,22 +1095,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1803513459307667</v>
+        <v>-0.1836839793777838</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3180242668497171</v>
+        <v>-0.3104160196522647</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6416214904223169</v>
+        <v>0.5394144413465773</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8210543923751189</v>
+        <v>0.5824834641220826</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.355173061805658</v>
+        <v>0.3756589274049746</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4112313532632182</v>
+        <v>0.3673264388922066</v>
       </c>
     </row>
     <row r="24">
@@ -1121,22 +1121,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7405925864655886</v>
+        <v>0.8184486582964094</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3988728916495268</v>
+        <v>0.4166845290518206</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.727651568860413</v>
+        <v>3.832794495723559</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.414107379289769</v>
+        <v>3.376620675690122</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.791471578115524</v>
+        <v>1.784538172754557</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.568108704443475</v>
+        <v>1.52192297110048</v>
       </c>
     </row>
     <row r="25">
@@ -1162,7 +1162,7 @@
         <v>1.600938567570828</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.511122666428731</v>
+        <v>1.51112266642873</v>
       </c>
     </row>
     <row r="26">
@@ -1172,19 +1172,23 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
+      <c r="C26" s="6" t="n">
+        <v>-0.7583601847220475</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E26" s="6" t="n">
-        <v>0.1556485009543152</v>
+        <v>0.1605905908985314</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2160421977535921</v>
+        <v>0.1640518121734756</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2499606709571833</v>
+        <v>0.3064145074827063</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3160485439352139</v>
+        <v>0.2950270064726372</v>
       </c>
     </row>
     <row r="27">
@@ -1197,16 +1201,16 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>5.427100243383287</v>
+        <v>4.798513121374809</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4.787249146823272</v>
+        <v>4.656389917446351</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4.37802888361243</v>
+        <v>4.84893720688039</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.885424912394818</v>
+        <v>3.884823059731154</v>
       </c>
     </row>
     <row r="28">
@@ -1247,22 +1251,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.413299553820495</v>
+        <v>-1.450119838941269</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.241701418755376</v>
+        <v>-1.350505695491788</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4511437661527959</v>
+        <v>0.2315667043358959</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.3898866063133237</v>
+        <v>-0.3365986414148718</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.323081678843208</v>
+        <v>-0.3002258874505236</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.4831184025249629</v>
+        <v>-0.4693958769522354</v>
       </c>
     </row>
     <row r="30">
@@ -1273,22 +1277,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1740950247257722</v>
+        <v>0.1741118988741985</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3580699002394061</v>
+        <v>0.3593642385091866</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.09810204583846</v>
+        <v>5.108590137105224</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.444484550845337</v>
+        <v>3.216885721672079</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.490942014216601</v>
+        <v>2.435048352441703</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.904197884118866</v>
+        <v>1.922009406845101</v>
       </c>
     </row>
     <row r="31">
@@ -1308,7 +1312,7 @@
         <v>0.6462679280076361</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.3846719168013498</v>
+        <v>0.3846719168013497</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3884601745823196</v>
@@ -1327,16 +1331,16 @@
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="n">
-        <v>0.05295423591576329</v>
+        <v>0.03483638882998291</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.08218461088247259</v>
+        <v>-0.07115462167973054</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1151809062543474</v>
+        <v>-0.110672981892315</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.150021696534217</v>
+        <v>-0.1416333429319503</v>
       </c>
     </row>
     <row r="33">
@@ -1349,16 +1353,16 @@
       <c r="C33" s="6" t="inlineStr"/>
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="n">
-        <v>1.491984579070296</v>
+        <v>1.730066706091563</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.171045312409824</v>
+        <v>1.079062895765897</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.289228984467053</v>
+        <v>1.139646195032312</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9969747344185198</v>
+        <v>0.9512486934783239</v>
       </c>
     </row>
     <row r="34">
@@ -1388,7 +1392,7 @@
         <v>0.2220018281243512</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.638673860056962</v>
+        <v>1.638673860056961</v>
       </c>
     </row>
     <row r="35">
@@ -1403,16 +1407,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.067657392326548</v>
+        <v>-0.9851786369608315</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.5248807928846566</v>
+        <v>0.553717020551112</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.8414751382321225</v>
+        <v>-0.9244790159367343</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.4681953047021949</v>
+        <v>0.3785097131272185</v>
       </c>
     </row>
     <row r="36">
@@ -1424,19 +1428,19 @@
       </c>
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="n">
-        <v>2.500585822368391</v>
+        <v>2.368379770049973</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.805510137588026</v>
+        <v>1.676370556990988</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.591626647291134</v>
+        <v>3.576600766071092</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.440232444421592</v>
+        <v>1.425347721373772</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.84131376301079</v>
+        <v>2.802346014652239</v>
       </c>
     </row>
     <row r="37">
@@ -1456,13 +1460,13 @@
         <v>0.1336689427767421</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.8324014015237421</v>
+        <v>0.8324014015237418</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1116357253651591</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8240226963442661</v>
+        <v>0.8240226963442657</v>
       </c>
     </row>
     <row r="38">
@@ -1475,16 +1479,16 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.3448638936419043</v>
+        <v>-0.3386920870137836</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1429026460144319</v>
+        <v>0.1151888900187607</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3461568177023285</v>
+        <v>-0.3903496790270038</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1685894995016602</v>
+        <v>0.119888034856928</v>
       </c>
     </row>
     <row r="39">
@@ -1497,16 +1501,16 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>0.9974761529892301</v>
+        <v>0.967532089833577</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.991669591479414</v>
+        <v>1.886199289723199</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.9684994687147415</v>
+        <v>0.9725665134030324</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.084377577514118</v>
+        <v>1.86190155286006</v>
       </c>
     </row>
     <row r="40">
@@ -1530,7 +1534,7 @@
         <v>0.9549886876560523</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1.592089189783947</v>
+        <v>1.592089189783946</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>0.5889250772796237</v>
@@ -1547,22 +1551,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.05430461556282917</v>
+        <v>-0.0632598594959867</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.03051034430153113</v>
+        <v>-0.05124366716337268</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.07996027323693485</v>
+        <v>0.07581009357763174</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.8756130558622309</v>
+        <v>0.8441687593718704</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.1165018893011056</v>
+        <v>0.1641013202115897</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.5020319005959231</v>
+        <v>0.5174612997747823</v>
       </c>
     </row>
     <row r="42">
@@ -1573,22 +1577,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.5006589162898465</v>
+        <v>0.4994176271401073</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.5365788170102556</v>
+        <v>0.5624206645081893</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.727376531586193</v>
+        <v>1.756155883331799</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.423181356390574</v>
+        <v>2.398352034363318</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.011743345240541</v>
+        <v>1.066113613667909</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.384708672464064</v>
+        <v>1.339896358894133</v>
       </c>
     </row>
     <row r="43">
@@ -1608,7 +1612,7 @@
         <v>0.3692322546075298</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>0.6155577429121567</v>
+        <v>0.6155577429121564</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4140942360103978</v>
@@ -1625,22 +1629,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2788290722804641</v>
+        <v>-0.3173211826229259</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1703846912160654</v>
+        <v>-0.2445636914342818</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.004924948055842726</v>
+        <v>0.02220268514497421</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2795756236395694</v>
+        <v>0.269088788691447</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.06939326838703036</v>
+        <v>0.09321543959118808</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3024054015751486</v>
+        <v>0.3048528246639133</v>
       </c>
     </row>
     <row r="45">
@@ -1651,22 +1655,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>4.629213182367844</v>
+        <v>4.862211097280731</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>5.749512578147857</v>
+        <v>4.899457539110943</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.7735860154123437</v>
+        <v>0.7748904780602378</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.130686359717886</v>
+        <v>1.090649875128662</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.8093078202857935</v>
+        <v>0.8858062778878497</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.135470872289143</v>
+        <v>1.093968758282271</v>
       </c>
     </row>
     <row r="46">
